--- a/sample_gdp.xlsx
+++ b/sample_gdp.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/852953b44cd0ef15/Desktop/final project/Methane_emissions_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EDBB245A-0130-492C-A061-A8C611740499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="14_{A6E01BEF-9F47-4DD2-908F-95E3EE2B8208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0791BD85-9651-4219-AA85-4653E0048C97}"/>
   <bookViews>
-    <workbookView xWindow="10860" yWindow="2100" windowWidth="15000" windowHeight="6630" xr2:uid="{FCD9D65A-4D10-4B6C-911A-6AC5106F06C4}"/>
+    <workbookView xWindow="10380" yWindow="630" windowWidth="24180" windowHeight="13695" xr2:uid="{FCD9D65A-4D10-4B6C-911A-6AC5106F06C4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,19 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
-  <si>
-    <t>Country Name</t>
-  </si>
-  <si>
-    <t>Country Code</t>
-  </si>
-  <si>
-    <t>Indicator Name</t>
-  </si>
-  <si>
-    <t>Indicator Code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
   <si>
     <t>Aruba</t>
   </si>
@@ -79,23 +67,38 @@
     <t>AFW</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
+    <t>year</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>country code</t>
+  </si>
+  <si>
+    <t>indicator</t>
+  </si>
+  <si>
+    <t>indicator code</t>
+  </si>
+  <si>
+    <t>emission</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -436,34 +439,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E60CD0B8-33B0-4B7B-94DB-FBD2B8348360}">
-  <dimension ref="A1:G5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7938DCAE-C586-4195-8C15-B23FF79671A4}">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F13" sqref="A1:F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -471,103 +475,249 @@
       <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>2983636871.5083799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>873354876607.31738</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2016</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
-        <v>2983636871.5083799</v>
-      </c>
-      <c r="F2">
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>18116562464.90881</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2016</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>690543020916.22913</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6">
         <v>3092430167.5977654</v>
       </c>
-      <c r="G2">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>985355704660.08289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>18753469630.258575</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>683741574626.19202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10">
         <v>3202188606.9289331</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2018</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1012853224905.787</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2018</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>18053228578.887756</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2018</v>
+      </c>
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>873354876607.31738</v>
-      </c>
-      <c r="F3">
-        <v>985355704660.08289</v>
-      </c>
-      <c r="G3">
-        <v>1012853224905.787</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>18116562464.90881</v>
-      </c>
-      <c r="F4">
-        <v>18753469630.258575</v>
-      </c>
-      <c r="G4">
-        <v>18053228578.887756</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>690543020916.22913</v>
-      </c>
-      <c r="F5">
-        <v>683741574626.19202</v>
-      </c>
-      <c r="G5">
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13">
         <v>741691624372.78796</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>